--- a/happyNeutral.xlsx
+++ b/happyNeutral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nakisa/Experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nakisa/Downloads/COGS189_Project-Eric_Test 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02529BDA-E240-B14F-91CF-62560A894CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F132CB94-6A46-B747-9AC8-949006221746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15400" xr2:uid="{7641E7F7-7267-5845-8B0F-8E2C2C3CE8B1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13320" windowHeight="15140" xr2:uid="{7641E7F7-7267-5845-8B0F-8E2C2C3CE8B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
   <si>
     <t>emotion</t>
   </si>
@@ -176,9 +176,6 @@
     <t>HappyNeutral/s037-01_img.bmp</t>
   </si>
   <si>
-    <t>HappyNeutral/Neutral 1.jpg</t>
-  </si>
-  <si>
     <t>HappyNeutral/Neutral 2.jpg</t>
   </si>
   <si>
@@ -225,6 +222,51 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>HappyNeutral/AF01NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM30NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/AF02NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM12NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/AF03NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM32NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/AF20NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/AM05NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM25NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM16NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM11NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BF26NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BM01NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/BF34NES.JPG</t>
+  </si>
+  <si>
+    <t>HappyNeutral/AF31NES.JPG</t>
   </si>
 </sst>
 </file>
@@ -247,12 +289,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,9 +315,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E8862-7067-524D-A522-27E739B1261B}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -623,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -634,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,18 +695,18 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -678,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -711,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -722,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,18 +783,18 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,29 +816,29 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
+      <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -799,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,18 +860,18 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,18 +882,18 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -854,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,18 +915,18 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -887,18 +937,18 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -909,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -931,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -953,18 +1003,18 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -975,29 +1025,29 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1008,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1019,29 +1069,29 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1063,18 +1113,18 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
+      <c r="A44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1085,18 +1135,18 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1107,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1118,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,29 +1179,29 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1162,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1173,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1184,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1195,29 +1245,29 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
+      <c r="A56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>62</v>
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1228,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1239,29 +1289,29 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>62</v>
+      <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1272,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1283,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1294,29 +1344,29 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
+      <c r="A66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1327,18 +1377,18 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,18 +1399,18 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>63</v>
+      <c r="A70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1371,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
